--- a/biology/Zoologie/Conure_à_gros_bec/Conure_à_gros_bec.xlsx
+++ b/biology/Zoologie/Conure_à_gros_bec/Conure_à_gros_bec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gros_bec</t>
+          <t>Conure_à_gros_bec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhynchopsitta pachyrhyncha
 La Conure à gros bec ou Perroquet à gros bec (Rhynchopsitta pachyrhyncha) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gros_bec</t>
+          <t>Conure_à_gros_bec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 38 cm. Il possède un corps robuste et trapu. Son plumage est vert avec des marques rouges sur le front, au-dessus des yeux, aux épaules et sur les culottes. Les cercles oculaires sont jaunâtres et les iris orange. Le bec est noir et les pattes grises.
 La coloration rouge est moins étendue et le bec est grisâtre chez le juvénile.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gros_bec</t>
+          <t>Conure_à_gros_bec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire dissoute s'étend à travers la Sierra Madre occidentale (Mexique).
 </t>
